--- a/public/plantilla/leidos/ordenes.xlsx
+++ b/public/plantilla/leidos/ordenes.xlsx
@@ -20,54 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">convencion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precio total global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total valor arancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total empaque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total cinta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total costo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total costo usd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre variable 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor variable 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre variable 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor variable 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre variable 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor variable 3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">sede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cantidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moneda (USD-COP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soacha</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
@@ -89,30 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
   </si>
   <si>
     <t xml:space="preserve">b</t>
@@ -196,7 +154,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -216,10 +174,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -255,131 +213,62 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>0</v>
+      <c r="A4" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -393,38 +282,14 @@
       <c r="E4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
